--- a/NEW SHEET.xlsx
+++ b/NEW SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\account-blling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A639DDC-6540-43C3-99A3-CD129EC2EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F11052E-D25C-4532-887A-26D8594A7459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E1F686F-FD2E-4247-A9A6-C622A92EC0C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>SecurityName</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>NIFTY</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>11RMV</t>
   </si>
 </sst>
 </file>
@@ -458,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF6B0A7-28FF-4FCE-9948-4F2E24A14354}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,46 +579,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>4622</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>26000</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
